--- a/test/doc_obj_test.xlsx
+++ b/test/doc_obj_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="12435" windowHeight="7230"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="12435" windowHeight="7170"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="71">
   <si>
     <t>field1</t>
   </si>
@@ -205,6 +205,30 @@
   </si>
   <si>
     <t>obj7</t>
+  </si>
+  <si>
+    <t>parent1_2</t>
+  </si>
+  <si>
+    <t>parent2_3</t>
+  </si>
+  <si>
+    <t>parent2_4</t>
+  </si>
+  <si>
+    <t>obj8</t>
+  </si>
+  <si>
+    <t>obj9</t>
+  </si>
+  <si>
+    <t>obj10</t>
+  </si>
+  <si>
+    <t>obj11</t>
+  </si>
+  <si>
+    <t>obj12</t>
   </si>
 </sst>
 </file>
@@ -603,10 +627,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="B5:Q20"/>
+  <dimension ref="C5:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,7 +638,7 @@
     <col min="3" max="3" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:17" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>16</v>
       </c>
@@ -625,7 +649,7 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:17" x14ac:dyDescent="0.25">
       <c r="D6" s="9" t="s">
         <v>0</v>
       </c>
@@ -641,7 +665,7 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:17" x14ac:dyDescent="0.25">
       <c r="D7" s="9" t="s">
         <v>1</v>
       </c>
@@ -661,13 +685,7 @@
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>55</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
+    <row r="8" spans="3:17" x14ac:dyDescent="0.25">
       <c r="D8" s="1" t="s">
         <v>4</v>
       </c>
@@ -693,7 +711,7 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:17" x14ac:dyDescent="0.25">
       <c r="D9" s="4" t="s">
         <v>10</v>
       </c>
@@ -719,7 +737,7 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C10" s="5" t="s">
         <v>17</v>
       </c>
@@ -736,7 +754,7 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C11" s="6" t="s">
         <v>18</v>
       </c>
@@ -753,7 +771,7 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
@@ -782,7 +800,7 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
@@ -804,14 +822,14 @@
       <c r="I13" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+    </row>
+    <row r="14" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
@@ -840,7 +858,7 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C15" s="6" t="s">
         <v>22</v>
       </c>
@@ -857,7 +875,7 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
         <v>23</v>
       </c>
@@ -926,41 +944,186 @@
         <v>61</v>
       </c>
     </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E27" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F27" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H27" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I27" s="7" t="s">
         <v>61</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
+  <mergeCells count="7">
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
     <mergeCell ref="D6:I6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
